--- a/public/userExcel.xlsx
+++ b/public/userExcel.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="131">
   <si>
     <t>Nguyen Thi C</t>
   </si>
@@ -333,6 +333,33 @@
   </si>
   <si>
     <t>2023-09-27 00:00:00</t>
+  </si>
+  <si>
+    <t>Eino Bahringer</t>
+  </si>
+  <si>
+    <t>your.email+fakedata40097@gmail.com</t>
+  </si>
+  <si>
+    <t>09876543</t>
+  </si>
+  <si>
+    <t>722 Miller Union</t>
+  </si>
+  <si>
+    <t>2023-02-25 00:00:00</t>
+  </si>
+  <si>
+    <t>Gene Powlowski</t>
+  </si>
+  <si>
+    <t>your.email+fakedata85655@gmail.com</t>
+  </si>
+  <si>
+    <t>32350 Rodriguez Stravenue</t>
+  </si>
+  <si>
+    <t>2021-12-07 00:00:00</t>
   </si>
   <si>
     <t>ID</t>
@@ -716,7 +743,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:I30"/>
+  <dimension ref="A1:I32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -726,31 +753,31 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="B1" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="C1" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="D1" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="E1" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="F1" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="G1" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="H1" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="I1" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -758,17 +785,17 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="C2" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="D2"/>
       <c r="E2" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="F2" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="G2" t="s">
         <v>4</v>
@@ -777,7 +804,7 @@
         <v>3</v>
       </c>
       <c r="I2" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -1082,7 +1109,7 @@
       </c>
       <c r="D15"/>
       <c r="E15" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="F15" t="s">
         <v>44</v>
@@ -1315,7 +1342,7 @@
         <v>2</v>
       </c>
       <c r="I24" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1365,7 +1392,9 @@
       <c r="G26" t="s">
         <v>4</v>
       </c>
-      <c r="H26"/>
+      <c r="H26">
+        <v>2</v>
+      </c>
       <c r="I26"/>
     </row>
     <row r="27" spans="1:9">
@@ -1445,25 +1474,80 @@
     </row>
     <row r="30" spans="1:9">
       <c r="A30">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B30" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="C30" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="D30" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="E30" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="F30" t="s">
-        <v>4</v>
+        <v>110</v>
       </c>
       <c r="G30" t="s">
-        <v>105</v>
+        <v>4</v>
+      </c>
+      <c r="H30"/>
+      <c r="I30"/>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31">
+        <v>58</v>
+      </c>
+      <c r="B31" t="s">
+        <v>111</v>
+      </c>
+      <c r="C31" t="s">
+        <v>112</v>
+      </c>
+      <c r="D31" t="s">
+        <v>108</v>
+      </c>
+      <c r="E31" t="s">
+        <v>113</v>
+      </c>
+      <c r="F31" t="s">
+        <v>114</v>
+      </c>
+      <c r="G31" t="s">
+        <v>7</v>
+      </c>
+      <c r="H31">
+        <v>1</v>
+      </c>
+      <c r="I31"/>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32">
+        <v>58</v>
+      </c>
+      <c r="B32" t="s">
+        <v>111</v>
+      </c>
+      <c r="C32" t="s">
+        <v>112</v>
+      </c>
+      <c r="D32" t="s">
+        <v>108</v>
+      </c>
+      <c r="E32" t="s">
+        <v>113</v>
+      </c>
+      <c r="F32" t="s">
+        <v>7</v>
+      </c>
+      <c r="G32" t="s">
+        <v>114</v>
+      </c>
+      <c r="H32">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
